--- a/data/trans_orig/P1435_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2012-Edad-trans_orig.xlsx
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>13,97%</t>
         </is>
       </c>
     </row>
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>92,24%</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,86%</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>95,76%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,4%</t>
         </is>
       </c>
     </row>
@@ -1408,12 +1408,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>91,6%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>91,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>95,36%</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>99,14%</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -2528,12 +2528,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>96,79%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P1435_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2012-Edad-trans_orig.xlsx
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>13,72%</t>
         </is>
       </c>
     </row>
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>86,03%</t>
+          <t>86,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>86,03%</t>
+          <t>86,28%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>92,19%</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>95,62%</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,48%</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>99,23%</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -2528,12 +2528,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,7%</t>
         </is>
       </c>
     </row>
